--- a/Hardware/BOM Controller PCB.xlsx
+++ b/Hardware/BOM Controller PCB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20403"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Heinrichs\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\Studium\Bachelor Arbeit\OpenSourceRIS\Hardware\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90AD7765-3129-446B-9106-61150EE8CE92}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54EC9AA5-322E-4124-981F-C157B8906EE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25800" yWindow="0" windowWidth="25800" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="156">
   <si>
     <t>Part</t>
   </si>
@@ -33,9 +33,6 @@
     <t>Value</t>
   </si>
   <si>
-    <t>Size</t>
-  </si>
-  <si>
     <t>Quantity</t>
   </si>
   <si>
@@ -51,9 +48,6 @@
     <t>100nF</t>
   </si>
   <si>
-    <t>0603</t>
-  </si>
-  <si>
     <t>Würth Elektronik</t>
   </si>
   <si>
@@ -117,9 +111,6 @@
     <t>694106106102</t>
   </si>
   <si>
-    <t>0805</t>
-  </si>
-  <si>
     <t xml:space="preserve">RC0805FR-070RL </t>
   </si>
   <si>
@@ -294,9 +285,6 @@
     <t>22pF</t>
   </si>
   <si>
-    <t>1210</t>
-  </si>
-  <si>
     <t xml:space="preserve">885012006053 </t>
   </si>
   <si>
@@ -348,9 +336,6 @@
     <t xml:space="preserve">742792012 </t>
   </si>
   <si>
-    <t>0402</t>
-  </si>
-  <si>
     <t xml:space="preserve">885012005057 </t>
   </si>
   <si>
@@ -375,9 +360,6 @@
     <t>BOM for Open Source RIS - Controller-PCB</t>
   </si>
   <si>
-    <t>Name</t>
-  </si>
-  <si>
     <t>S101</t>
   </si>
   <si>
@@ -481,6 +463,36 @@
   </si>
   <si>
     <t>R201</t>
+  </si>
+  <si>
+    <t>Designator</t>
+  </si>
+  <si>
+    <t>Footprint</t>
+  </si>
+  <si>
+    <t>LED0603</t>
+  </si>
+  <si>
+    <t>L0805</t>
+  </si>
+  <si>
+    <t>R0603</t>
+  </si>
+  <si>
+    <t>R0805</t>
+  </si>
+  <si>
+    <t>C0402</t>
+  </si>
+  <si>
+    <t>C0603</t>
+  </si>
+  <si>
+    <t>C0805</t>
+  </si>
+  <si>
+    <t>C1210</t>
   </si>
 </sst>
 </file>
@@ -839,7 +851,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
+      <selection pane="bottomLeft" activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -858,7 +870,7 @@
   <sheetData>
     <row r="1" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
@@ -877,19 +889,19 @@
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="G3" s="1" t="s">
-        <v>116</v>
+        <v>146</v>
       </c>
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
@@ -897,807 +909,807 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="G4" s="3" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>27</v>
-      </c>
       <c r="G5" s="3" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>40</v>
-      </c>
       <c r="G8" s="3" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D9">
         <v>2</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D10">
         <v>2</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>8</v>
+        <v>148</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>8</v>
+        <v>148</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>8</v>
+        <v>148</v>
       </c>
       <c r="D13">
         <v>2</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>8</v>
+        <v>148</v>
       </c>
       <c r="D14">
         <v>2</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F15" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>46</v>
-      </c>
       <c r="G15" s="3" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F16" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>50</v>
-      </c>
       <c r="G16" s="3" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>60</v>
-      </c>
       <c r="D17">
         <v>1</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D18">
         <v>1</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D19">
         <v>1</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>65</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>71</v>
       </c>
       <c r="D20">
         <v>4</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>30</v>
+        <v>149</v>
       </c>
       <c r="D21">
         <v>3</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D22">
         <v>1</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D23">
         <v>1</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D24">
         <v>1</v>
       </c>
       <c r="E24" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F24" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="F24" s="3" t="s">
-        <v>80</v>
-      </c>
       <c r="G24" s="3" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>89</v>
+        <v>155</v>
       </c>
       <c r="D25">
         <v>5</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>30</v>
+        <v>154</v>
       </c>
       <c r="D26">
         <v>1</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>30</v>
+        <v>154</v>
       </c>
       <c r="D27">
         <v>3</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B28" s="3" t="s">
-        <v>7</v>
-      </c>
       <c r="C28" s="3" t="s">
-        <v>8</v>
+        <v>153</v>
       </c>
       <c r="D28">
         <v>15</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>8</v>
+        <v>153</v>
       </c>
       <c r="D29">
         <v>2</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>8</v>
+        <v>153</v>
       </c>
       <c r="D30">
         <v>2</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>8</v>
+        <v>153</v>
       </c>
       <c r="D31">
         <v>2</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>107</v>
+        <v>152</v>
       </c>
       <c r="D32">
         <v>1</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>30</v>
+        <v>151</v>
       </c>
       <c r="D33">
         <v>4</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>8</v>
+        <v>150</v>
       </c>
       <c r="D34">
         <v>2</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>8</v>
+        <v>150</v>
       </c>
       <c r="D35">
         <v>7</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>8</v>
+        <v>150</v>
       </c>
       <c r="D36">
         <v>2</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>13</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B37" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D37">
-        <v>1</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="F37" s="3" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>13</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B38" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D38">
-        <v>1</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="F38" s="3" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
